--- a/biology/Botanique/Groupe_Osborne/Groupe_Osborne.xlsx
+++ b/biology/Botanique/Groupe_Osborne/Groupe_Osborne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Groupe Osborne est une entreprise espagnole spécialisée principalement dans la fabrication et la distribution de vin et de spiritueux. Elle est basée à El Puerto de Santa Maria, dans la province de Cadix, en Espagne.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À La fin du XVIIIe siècle, Thomas Osborne Mann, commerçant anglais d'Exeter, s'installe à Cadix. Il s'associe avec Lonergan &amp; White, importateurs de vin.
 Il se lie d'amitié avec Sir James Duff et son neveu William Gordon, propriétaires de caves à vin à El Puerto de Santa Maria. Il s'y installe et épouse en 1825 Aurora Böhl de Faber, fille de Juan Nicolás  Böhl de Faber, fondé de pouvoir de l'entreprise Duff Gordon. Il aura avec elle cinq enfants.
@@ -556,30 +570,137 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vente de vin (Bodegas),distilleries, eau minérales, jus de fruit, jambon ibérique et dérivés du porc ibérique
-Bodegas Osborne - El Puerto de Santa María
+          <t>Vente de vin (Bodegas),distilleries, eau minérales, jus de fruit, jambon ibérique et dérivés du porc ibérique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bodegas Osborne - El Puerto de Santa María
 Bodegas Montecillo - Rioja
 Bodegas Osborne - Malpica
 Distillerie Osborne - Tomelloso
 Anis del Mono - Badalona
 Solan de Cabras - Cuenca
-Sanchez Romero Carvajal - Jabugo
-Vins
-Vins de Jerez
+Sanchez Romero Carvajal - Jabugo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Groupe_Osborne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Osborne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Secteurs d'activité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vins de Jerez
 Vins Ribera del Duero
 Vins de Rioja
 Vinos de la Tierra de Castilla
 Vinos de la Tierra de Cádiz
 Porto
-Manzanilla
-Spiritueux
-Brandies de Jerez
+Manzanilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Groupe_Osborne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Osborne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Secteurs d'activité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spiritueux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brandies de Jerez
 Anisette
 Rhum
 Vodka
-Liqueurs
-Autres
-Jambon et autres produits dérivés du porc
+Liqueurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Groupe_Osborne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Osborne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Secteurs d'activité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jambon et autres produits dérivés du porc
 Eaux minérales
 Sodas
 Boissons énergétiques
@@ -587,31 +708,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Groupe_Osborne</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Groupe_Osborne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Marques du groupe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Fino Quinta
 Brandies 103, Veterano, Indepedencia, Conde de Osborne, Magno, Carlos I
@@ -629,31 +752,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Groupe_Osborne</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Groupe_Osborne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès 1957, à l'occasion d'une campagne de publicité pour le brandy Veterano de Osborne, apparaissent au bord des routes espagnoles des taureaux de bois, puis de métal, mesurant jusqu'à 14 mètres de haut, portant le logo de la marque. Depuis, les lois sur la publicité ayant changé, la marque a disparu, mais les taureaux restent. Ils sont même devenus un des symboles les plus connus de l'Espagne.
 D'autres campagnes publicitaires de la marque ont marqué leur époque, comme celle des années 1960, télévisée, mettant en scène le mannequin espagnol Elena Valduque.
